--- a/Engage/Engage-Performance/src/main/resources/excelfiles/Engage_NSReadings.xlsx
+++ b/Engage/Engage-Performance/src/main/resources/excelfiles/Engage_NSReadings.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0ADD38-E89C-4CFD-8440-8D58CD8B1339}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A00F089-E03E-404F-8DC8-EAD59AAE5FF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="75">
   <si>
     <t>Environment</t>
   </si>
@@ -247,10 +247,7 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>7.76</t>
-  </si>
-  <si>
-    <t>8.81</t>
+    <t>13.84</t>
   </si>
 </sst>
 </file>
@@ -258,7 +255,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,8 +327,184 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="114">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +525,486 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -461,7 +1114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -480,6 +1133,70 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="47" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="53" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="59" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="65" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="67" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="71" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="77" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="79" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="83" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="85" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="89" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="91" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="93" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="95" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="101" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="103" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="107" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="113" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -918,7 +1635,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,7 +1710,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -1014,11 +1731,11 @@
       <c r="I2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>73</v>
+      <c r="J2" s="72" t="s">
+        <v>70</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="4"/>
@@ -1054,7 +1771,7 @@
       <c r="I3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="72" t="s">
         <v>70</v>
       </c>
       <c r="K3" s="5" t="s">
@@ -1096,7 +1813,7 @@
       <c r="I4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="72" t="s">
         <v>70</v>
       </c>
       <c r="K4" s="5" t="s">
@@ -1138,7 +1855,7 @@
       <c r="I5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="72" t="s">
         <v>70</v>
       </c>
       <c r="K5" s="5" t="s">
@@ -1180,7 +1897,7 @@
       <c r="I6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="72" t="s">
         <v>70</v>
       </c>
       <c r="K6" s="5" t="s">
@@ -1222,7 +1939,7 @@
       <c r="I7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="72" t="s">
         <v>70</v>
       </c>
       <c r="K7" s="5" t="s">
@@ -1264,7 +1981,7 @@
       <c r="I8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="80" t="s">
         <v>70</v>
       </c>
       <c r="K8" s="5" t="s">
@@ -1306,7 +2023,7 @@
       <c r="I9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="72" t="s">
         <v>70</v>
       </c>
       <c r="K9" s="5" t="s">
@@ -1348,7 +2065,7 @@
       <c r="I10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="72" t="s">
         <v>70</v>
       </c>
       <c r="K10" s="5" t="s">
@@ -1390,7 +2107,7 @@
       <c r="I11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="72" t="s">
         <v>70</v>
       </c>
       <c r="K11" s="5" t="s">
@@ -1432,7 +2149,7 @@
       <c r="I12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="72" t="s">
         <v>70</v>
       </c>
       <c r="K12" s="5" t="s">

--- a/Engage/Engage-Performance/src/main/resources/excelfiles/Engage_NSReadings.xlsx
+++ b/Engage/Engage-Performance/src/main/resources/excelfiles/Engage_NSReadings.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A00F089-E03E-404F-8DC8-EAD59AAE5FF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140D97AF-7626-408D-8686-DCE42015890E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
   <si>
     <t>Environment</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Lead</t>
   </si>
   <si>
-    <t>Nadeem</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -242,20 +239,13 @@
   </si>
   <si>
     <t>welcome29</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>13.84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,205 +296,12 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="114">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,546 +321,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
@@ -1114,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1124,79 +381,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="47" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="53" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="59" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="65" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="67" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="71" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="77" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="79" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="83" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="85" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="89" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="91" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="93" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="95" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="101" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="103" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="107" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="113" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1487,8 +672,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1507,7 +692,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1531,9 +716,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1552,7 +737,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1574,10 +759,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1599,10 +784,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -1613,13 +798,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1635,24 +820,24 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="13" max="15" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="15" width="13.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1666,76 +851,76 @@
         <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="72" t="s">
-        <v>70</v>
+        <v>35</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="4"/>
@@ -1745,415 +930,415 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="72" t="s">
-        <v>70</v>
+      <c r="J3" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="4"/>
       <c r="N3" s="1"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="I4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="72" t="s">
-        <v>70</v>
+        <v>35</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="4"/>
       <c r="N4" s="1"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="72" t="s">
-        <v>70</v>
+        <v>35</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="4"/>
       <c r="N5" s="1"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="72" t="s">
-        <v>70</v>
+        <v>35</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="4"/>
       <c r="N6" s="1"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="I7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="72" t="s">
-        <v>70</v>
+        <v>35</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="4"/>
       <c r="N7" s="1"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="I8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="80" t="s">
-        <v>70</v>
+        <v>35</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="4"/>
       <c r="N8" s="1"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="I9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="72" t="s">
-        <v>70</v>
+        <v>35</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="4"/>
       <c r="N9" s="1"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="I10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="72" t="s">
-        <v>70</v>
+        <v>35</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="4"/>
       <c r="N10" s="1"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="I11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="72" t="s">
-        <v>70</v>
+        <v>35</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="4"/>
       <c r="N11" s="1"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="4"/>
